--- a/External/Localisation.xlsx
+++ b/External/Localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riany\GODOT Projects\Roche-Limit\External\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B620849-9496-43E9-A858-0FE5FBFC9547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E301B1B-A4EE-4214-9F88-5F968D8871C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{A987F9A5-3EA6-40B1-A4F2-4DC9F39CDEEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="174">
   <si>
     <t>key</t>
   </si>
@@ -482,9 +482,6 @@
     <t>IZAĆI</t>
   </si>
   <si>
-    <t>DIALOGUE_test/conv1/1</t>
-  </si>
-  <si>
     <t>This is a test dialogue string</t>
   </si>
   <si>
@@ -500,57 +497,12 @@
     <t>SETTINGS_accessibility</t>
   </si>
   <si>
-    <t>Audio</t>
-  </si>
-  <si>
     <t>SETTINGS_audio.master</t>
   </si>
   <si>
-    <t>Master</t>
-  </si>
-  <si>
     <t>SETTINGS_audio.music</t>
   </si>
   <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>SETTINGS_audio.sfx</t>
-  </si>
-  <si>
-    <t>SFX</t>
-  </si>
-  <si>
-    <t>SETTINGS_audio.players</t>
-  </si>
-  <si>
-    <t>Players</t>
-  </si>
-  <si>
-    <t>SETTINGS_audio.input</t>
-  </si>
-  <si>
-    <t>Input Device</t>
-  </si>
-  <si>
-    <t>SETTINGS_audio.input.vol</t>
-  </si>
-  <si>
-    <t>Input Volume</t>
-  </si>
-  <si>
-    <t>SETTINGS_audio.input.ptt</t>
-  </si>
-  <si>
-    <t>Push to Talk</t>
-  </si>
-  <si>
-    <t>SETTINGS_audio.input.open</t>
-  </si>
-  <si>
-    <t>Open Mic</t>
-  </si>
-  <si>
     <t>SETTINGS_audio.output</t>
   </si>
   <si>
@@ -567,6 +519,45 @@
   </si>
   <si>
     <t>Applies a low-pass filter to all audio to reduce high pitched noises</t>
+  </si>
+  <si>
+    <t>DIALOGUE_test/conv1/d1</t>
+  </si>
+  <si>
+    <t>DIALOGUE_test/conv1/d2</t>
+  </si>
+  <si>
+    <t>What the freak</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Controls</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>SETTINGS_audio.menu_sfx</t>
+  </si>
+  <si>
+    <t>SETTINGS_audio.game_sfx</t>
+  </si>
+  <si>
+    <t>Game SFX Volume</t>
+  </si>
+  <si>
+    <t>Menu SFX Volume</t>
+  </si>
+  <si>
+    <t>Music Volume</t>
+  </si>
+  <si>
+    <t>Master Volume</t>
+  </si>
+  <si>
+    <t>Audio Settings</t>
   </si>
 </sst>
 </file>
@@ -960,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F89BA5F-BC43-4C0B-A0FC-3B29B9A1574C}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1508,121 +1499,106 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>149</v>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
